--- a/BackTest/2019-10-30 BackTest MIX.xlsx
+++ b/BackTest/2019-10-30 BackTest MIX.xlsx
@@ -7559,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
@@ -10006,14 +10006,20 @@
         <v>8.928000000000001</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>8.83</v>
+      </c>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10047,12 +10053,14 @@
         <v>0</v>
       </c>
       <c r="J276" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K276" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="L276" t="inlineStr"/>
+        <v>8.789999999999999</v>
+      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10086,14 +10094,12 @@
         <v>0</v>
       </c>
       <c r="J277" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="K277" t="n">
         <v>8.880000000000001</v>
       </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M277" t="n">
@@ -10129,14 +10135,12 @@
         <v>0</v>
       </c>
       <c r="J278" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="K278" t="n">
-        <v>8.880000000000001</v>
-      </c>
+        <v>8.85</v>
+      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M278" t="n">
@@ -10166,18 +10170,18 @@
         <v>8.9055</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K279" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="L279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10205,20 +10209,16 @@
         <v>8.904500000000001</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K280" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M280" t="n">
@@ -10248,17 +10248,13 @@
         <v>8.906499999999999</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="K281" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10291,17 +10287,13 @@
         <v>8.9115</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>9</v>
-      </c>
-      <c r="K282" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10340,11 +10332,9 @@
         <v>0</v>
       </c>
       <c r="J283" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="K283" t="n">
-        <v>8.880000000000001</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10383,9 +10373,7 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10424,9 +10412,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10465,9 +10451,7 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10506,9 +10490,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10541,17 +10523,13 @@
         <v>8.907999999999998</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="K288" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10590,9 +10568,7 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10625,17 +10601,13 @@
         <v>8.906499999999998</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="K290" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10674,9 +10646,7 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10715,9 +10685,7 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10756,9 +10724,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10791,17 +10757,13 @@
         <v>8.916499999999996</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="K294" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10834,17 +10796,13 @@
         <v>8.920499999999993</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="K295" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10877,17 +10835,13 @@
         <v>8.922999999999995</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="K296" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10920,17 +10874,13 @@
         <v>8.927999999999994</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="K297" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10963,17 +10913,13 @@
         <v>8.936499999999993</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>9</v>
-      </c>
-      <c r="K298" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11012,9 +10958,7 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11053,9 +10997,7 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11094,9 +11036,7 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11135,9 +11075,7 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11176,9 +11114,7 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11217,9 +11153,7 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11258,9 +11192,7 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11299,9 +11231,7 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11340,9 +11270,7 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11381,9 +11309,7 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11422,9 +11348,7 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11463,9 +11387,7 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11504,9 +11426,7 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11545,9 +11465,7 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11586,9 +11504,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11627,9 +11543,7 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11668,9 +11582,7 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11709,9 +11621,7 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11750,9 +11660,7 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11791,9 +11699,7 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11832,9 +11738,7 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11873,9 +11777,7 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11914,9 +11816,7 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11955,9 +11855,7 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11996,9 +11894,7 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12037,9 +11933,7 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12078,9 +11972,7 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12119,9 +12011,7 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12160,9 +12050,7 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12201,9 +12089,7 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12242,9 +12128,7 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12283,9 +12167,7 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12324,9 +12206,7 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12365,9 +12245,7 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12406,9 +12284,7 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12447,9 +12323,7 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12488,9 +12362,7 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12529,9 +12401,7 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12570,9 +12440,7 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12611,9 +12479,7 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12652,9 +12518,7 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12693,9 +12557,7 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12734,9 +12596,7 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12775,9 +12635,7 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12816,9 +12674,7 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12857,9 +12713,7 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12898,9 +12752,7 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12939,9 +12791,7 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>8.880000000000001</v>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-30 BackTest MIX.xlsx
+++ b/BackTest/2019-10-30 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>1963338.083314163</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1962338.083314163</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1853689.248414163</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1577282.062314163</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1564983.400114163</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1560096.828714163</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1543736.958214163</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1534029.026314163</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1509195.248614163</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>1509205.248614163</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1484205.248614163</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1484205.248614163</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1484205.248614163</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1638197.012714163</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1638197.012714163</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1685455.394214163</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1685455.394214163</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1374998.157314163</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1374998.157314163</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1402189.228214163</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1977371.516714163</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1977371.516714163</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -2398,14 +2398,10 @@
         <v>1059270.362945644</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="J61" t="n">
-        <v>8.880000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
@@ -2435,19 +2431,11 @@
         <v>1059270.362945644</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="J62" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2476,19 +2464,11 @@
         <v>1059052.284245644</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="J63" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2517,14 +2497,10 @@
         <v>1059267.300845644</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="J64" t="n">
-        <v>8.890000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
@@ -2554,19 +2530,11 @@
         <v>1055286.140720699</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="J65" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2595,19 +2563,11 @@
         <v>1100999.873920699</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="J66" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2636,14 +2596,10 @@
         <v>1095994.312220699</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>9</v>
-      </c>
-      <c r="J67" t="n">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
@@ -2673,19 +2629,11 @@
         <v>1138398.424054366</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="J68" t="n">
-        <v>9</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2714,19 +2662,11 @@
         <v>1138398.424054366</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>9</v>
-      </c>
-      <c r="J69" t="n">
-        <v>9</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2755,19 +2695,11 @@
         <v>1138730.238554366</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>9</v>
-      </c>
-      <c r="J70" t="n">
-        <v>9</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2796,19 +2728,11 @@
         <v>1138918.065554366</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="J71" t="n">
-        <v>9</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2837,19 +2761,11 @@
         <v>1138918.065554366</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="J72" t="n">
-        <v>9</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2878,19 +2794,11 @@
         <v>539583.9923543662</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="J73" t="n">
-        <v>9</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2922,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>9</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2961,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>9</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2997,19 +2893,11 @@
         <v>554998.1450543662</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="J76" t="n">
-        <v>9</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3041,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>9</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3080,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>9</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3119,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>9</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3158,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>9</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3197,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>9</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3236,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>9</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3275,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>9</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3314,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>9</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3350,19 +3190,13 @@
         <v>614375.1667717289</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>9</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>1.006111111111111</v>
+        <v>1</v>
       </c>
       <c r="M85" t="inlineStr"/>
     </row>
@@ -3389,7 +3223,7 @@
         <v>614375.1667717289</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3422,7 +3256,7 @@
         <v>605172.1667717289</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3488,7 +3322,7 @@
         <v>616086.2453717289</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3554,7 +3388,7 @@
         <v>608610.709771729</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -4379,14 +4213,10 @@
         <v>463594.6148133012</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="J116" t="n">
-        <v>9.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
@@ -4419,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4458,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -6870,14 +6688,10 @@
         <v>-2656453.874616732</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="J191" t="n">
-        <v>8.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
@@ -6907,19 +6721,11 @@
         <v>-3063968.094016732</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="J192" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6948,19 +6754,11 @@
         <v>-3112077.032716732</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="J193" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6989,19 +6787,11 @@
         <v>-3067261.431716732</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="J194" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7030,19 +6820,11 @@
         <v>-3067261.431716732</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>9</v>
-      </c>
-      <c r="J195" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7071,19 +6853,11 @@
         <v>-3067261.431716732</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>9</v>
-      </c>
-      <c r="J196" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7115,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7154,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7193,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7232,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7271,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7310,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7349,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7385,19 +7117,11 @@
         <v>-2909214.361533325</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="J204" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7429,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7468,14 +7186,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7507,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7546,14 +7252,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7585,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7624,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7663,14 +7351,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7702,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7741,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7777,19 +7447,11 @@
         <v>-3536547.529933325</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="J214" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7821,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7857,19 +7513,11 @@
         <v>-3566524.114433324</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="J216" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7898,19 +7546,11 @@
         <v>-3563706.024733325</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="J217" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7939,19 +7579,11 @@
         <v>-3563706.024733325</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="J218" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7980,19 +7612,11 @@
         <v>-3563706.024733325</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="J219" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8021,19 +7645,11 @@
         <v>-3563706.024733325</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="J220" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8062,19 +7678,11 @@
         <v>-3567879.890833325</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="J221" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8103,19 +7711,11 @@
         <v>-3621264.574433325</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="J222" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8144,19 +7744,11 @@
         <v>-3401064.771033325</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="J223" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8185,19 +7777,11 @@
         <v>-3401064.771033325</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="J224" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8226,19 +7810,11 @@
         <v>-3222114.505633325</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="J225" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8267,19 +7843,11 @@
         <v>-3224922.951733325</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="J226" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8308,19 +7876,11 @@
         <v>-3224922.951733325</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="J227" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8349,19 +7909,11 @@
         <v>-3224912.951733325</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="J228" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8390,19 +7942,11 @@
         <v>-3256728.599333324</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="J229" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8431,19 +7975,11 @@
         <v>-2945514.923633324</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>9</v>
-      </c>
-      <c r="J230" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8472,19 +8008,11 @@
         <v>-2945514.923633324</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="J231" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8513,19 +8041,11 @@
         <v>-2998779.164733325</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="J232" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8554,19 +8074,11 @@
         <v>-3973615.158833325</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="J233" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8595,19 +8107,11 @@
         <v>-3944320.956933325</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="J234" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8636,19 +8140,11 @@
         <v>-3944310.956933325</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="J235" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8680,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8716,19 +8206,11 @@
         <v>-3930209.037833325</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="J237" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8757,19 +8239,11 @@
         <v>-3937933.672933325</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="J238" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8798,19 +8272,11 @@
         <v>-3898274.433733325</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="J239" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8839,19 +8305,11 @@
         <v>-3758481.239633325</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="J240" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8880,19 +8338,11 @@
         <v>-3758481.239633325</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="J241" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8921,19 +8371,11 @@
         <v>-3258377.239633325</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="J242" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8962,19 +8404,11 @@
         <v>-3258377.239633325</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="J243" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9003,19 +8437,11 @@
         <v>-3207883.712133325</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="J244" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9047,14 +8473,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9086,14 +8506,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9125,14 +8539,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9161,19 +8569,13 @@
         <v>-3231883.698833324</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
-        <v>1.006135857461025</v>
+        <v>1</v>
       </c>
       <c r="M248" t="inlineStr"/>
     </row>
@@ -9332,7 +8734,7 @@
         <v>-2674654.444533324</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9563,7 +8965,7 @@
         <v>-2381719.367533324</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9596,7 +8998,7 @@
         <v>-2175849.271933324</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9629,7 +9031,7 @@
         <v>-1557124.038433324</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9662,7 +9064,7 @@
         <v>-277289.226533324</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9695,7 +9097,7 @@
         <v>-696064.094833324</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9728,7 +9130,7 @@
         <v>-914489.9213333239</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9761,7 +9163,7 @@
         <v>-835524.7423333239</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9794,7 +9196,7 @@
         <v>-835524.7423333239</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9827,7 +9229,7 @@
         <v>-835524.7423333239</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9860,7 +9262,7 @@
         <v>-835312.7423333239</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9893,7 +9295,7 @@
         <v>-835312.7423333239</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9926,7 +9328,7 @@
         <v>-1203983.623933324</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9959,7 +9361,7 @@
         <v>-1269897.941133324</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9992,7 +9394,7 @@
         <v>-1213876.239433324</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10025,7 +9427,7 @@
         <v>-1213876.239433324</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10058,7 +9460,7 @@
         <v>-1122568.982833324</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10091,7 +9493,7 @@
         <v>-1122568.982833324</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10124,7 +9526,7 @@
         <v>-1030847.715233324</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10157,7 +9559,7 @@
         <v>-1030847.715233324</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10190,7 +9592,7 @@
         <v>-1030847.715233324</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10223,7 +9625,7 @@
         <v>-1609495.990233324</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10256,7 +9658,7 @@
         <v>-1609485.990233324</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10289,7 +9691,7 @@
         <v>-1960334.484633324</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10322,7 +9724,7 @@
         <v>-1971788.570233324</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10355,7 +9757,7 @@
         <v>-1984357.418533324</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10421,7 +9823,7 @@
         <v>-2087539.622633324</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10454,7 +9856,7 @@
         <v>-3257106.459133324</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10487,7 +9889,7 @@
         <v>-3227327.235033324</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10553,7 +9955,7 @@
         <v>-3236251.657433324</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10652,7 +10054,7 @@
         <v>-3160938.044433324</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10685,7 +10087,7 @@
         <v>-3330042.522233324</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10784,7 +10186,7 @@
         <v>-3461872.543473523</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10817,7 +10219,7 @@
         <v>-3461862.543473523</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10916,7 +10318,7 @@
         <v>-3442440.458373523</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10949,7 +10351,7 @@
         <v>-3442440.458373523</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11048,7 +10450,7 @@
         <v>-3445271.050573524</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11081,7 +10483,7 @@
         <v>-3654018.159873524</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11147,7 +10549,7 @@
         <v>-3654004.889173524</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11180,7 +10582,7 @@
         <v>-3698067.442773524</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11213,7 +10615,7 @@
         <v>-3698067.442773524</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11279,7 +10681,7 @@
         <v>-3720723.694173524</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11312,7 +10714,7 @@
         <v>-3720723.694173524</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11345,7 +10747,7 @@
         <v>-3889155.581973524</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12995,14 +12397,10 @@
         <v>-7056322.310570056</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="J364" t="n">
-        <v>9.050000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
@@ -13032,19 +12430,11 @@
         <v>-7056322.310570056</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
-      </c>
-      <c r="I365" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="J365" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13076,14 +12466,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13112,14 +12496,10 @@
         <v>-7056322.310570056</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
-      </c>
-      <c r="I367" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="J367" t="n">
-        <v>9.050000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
@@ -13149,19 +12529,11 @@
         <v>-7056322.310570056</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
-      </c>
-      <c r="I368" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="J368" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13190,19 +12562,11 @@
         <v>-7056322.310570056</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="J369" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13297,14 +12661,10 @@
         <v>-7193570.937470055</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
-      </c>
-      <c r="I372" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="J372" t="n">
-        <v>9.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
@@ -13337,14 +12697,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13373,19 +12727,11 @@
         <v>-7201703.228370056</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
-      </c>
-      <c r="I374" t="n">
-        <v>9</v>
-      </c>
-      <c r="J374" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13513,14 +12859,10 @@
         <v>-7106365.548570056</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
-      </c>
-      <c r="I378" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="J378" t="n">
-        <v>9.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
@@ -13553,14 +12895,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13589,19 +12925,11 @@
         <v>-7079226.720370055</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
-      </c>
-      <c r="I380" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="J380" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13630,300 +12958,248 @@
         <v>-6950243.246370055</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
-      </c>
-      <c r="I381" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="J381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="C382" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="D382" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="E382" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="F382" t="n">
+        <v>28449</v>
+      </c>
+      <c r="G382" t="n">
+        <v>-6950243.246370055</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="C383" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="D383" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="E383" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="F383" t="n">
+        <v>49214.1632</v>
+      </c>
+      <c r="G383" t="n">
+        <v>-6999457.409570055</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="C384" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="D384" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="E384" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="F384" t="n">
+        <v>22919.812</v>
+      </c>
+      <c r="G384" t="n">
+        <v>-6999457.409570055</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="C385" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="D385" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="E385" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="F385" t="n">
+        <v>55080.188</v>
+      </c>
+      <c r="G385" t="n">
+        <v>-6999457.409570055</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="C386" t="n">
+        <v>9</v>
+      </c>
+      <c r="D386" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="E386" t="n">
+        <v>9</v>
+      </c>
+      <c r="F386" t="n">
+        <v>228582.879</v>
+      </c>
+      <c r="G386" t="n">
+        <v>-7228040.288570055</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
         <v>9.01</v>
       </c>
-      <c r="K381" t="inlineStr">
+      <c r="C387" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="D387" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="E387" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="F387" t="n">
+        <v>2711.1893</v>
+      </c>
+      <c r="G387" t="n">
+        <v>-7225329.099270055</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>9</v>
+      </c>
+      <c r="C388" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="D388" t="n">
+        <v>9</v>
+      </c>
+      <c r="E388" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="F388" t="n">
+        <v>172014.8457</v>
+      </c>
+      <c r="G388" t="n">
+        <v>-7397343.944970055</v>
+      </c>
+      <c r="H388" t="n">
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="C382" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="D382" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="E382" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="F382" t="n">
-        <v>28449</v>
-      </c>
-      <c r="G382" t="n">
-        <v>-6950243.246370055</v>
-      </c>
-      <c r="H382" t="n">
-        <v>2</v>
-      </c>
-      <c r="I382" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="J382" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="C383" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="D383" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="E383" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="F383" t="n">
-        <v>49214.1632</v>
-      </c>
-      <c r="G383" t="n">
-        <v>-6999457.409570055</v>
-      </c>
-      <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="C384" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="D384" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="E384" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="F384" t="n">
-        <v>22919.812</v>
-      </c>
-      <c r="G384" t="n">
-        <v>-6999457.409570055</v>
-      </c>
-      <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="J384" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
-      <c r="M384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="C385" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="D385" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="E385" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="F385" t="n">
-        <v>55080.188</v>
-      </c>
-      <c r="G385" t="n">
-        <v>-6999457.409570055</v>
-      </c>
-      <c r="H385" t="n">
-        <v>2</v>
-      </c>
-      <c r="I385" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="J385" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L385" t="n">
-        <v>1</v>
-      </c>
-      <c r="M385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="C386" t="n">
-        <v>9</v>
-      </c>
-      <c r="D386" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="E386" t="n">
-        <v>9</v>
-      </c>
-      <c r="F386" t="n">
-        <v>228582.879</v>
-      </c>
-      <c r="G386" t="n">
-        <v>-7228040.288570055</v>
-      </c>
-      <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L386" t="n">
-        <v>1</v>
-      </c>
-      <c r="M386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="C387" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="D387" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="E387" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="F387" t="n">
-        <v>2711.1893</v>
-      </c>
-      <c r="G387" t="n">
-        <v>-7225329.099270055</v>
-      </c>
-      <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L387" t="n">
-        <v>1</v>
-      </c>
-      <c r="M387" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>9</v>
-      </c>
-      <c r="C388" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="D388" t="n">
-        <v>9</v>
-      </c>
-      <c r="E388" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="F388" t="n">
-        <v>172014.8457</v>
-      </c>
-      <c r="G388" t="n">
-        <v>-7397343.944970055</v>
-      </c>
-      <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="J388" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13955,9 +13231,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13991,12 +13265,12 @@
         <v>-7353321.6148639</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>9.01</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14033,9 +13307,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14072,9 +13344,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14108,14 +13378,10 @@
         <v>-7532111.923063899</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
-      </c>
-      <c r="I393" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="J393" t="n">
-        <v>9.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14152,9 +13418,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14191,9 +13455,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14227,14 +13489,10 @@
         <v>-7528791.923063899</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
-      </c>
-      <c r="I396" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="J396" t="n">
-        <v>9.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14268,14 +13526,10 @@
         <v>-7642065.845963899</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
-      </c>
-      <c r="I397" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="J397" t="n">
-        <v>9.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14309,14 +13563,10 @@
         <v>-7842065.846063899</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
-      </c>
-      <c r="I398" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="J398" t="n">
-        <v>9.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14350,14 +13600,12 @@
         <v>-7995204.682363898</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I399" t="n">
         <v>8.970000000000001</v>
       </c>
-      <c r="J399" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14391,14 +13639,12 @@
         <v>-7995204.682363898</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I400" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="J400" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14432,14 +13678,12 @@
         <v>-7568798.035863899</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I401" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="J401" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14473,14 +13717,12 @@
         <v>-7568798.035863899</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I402" t="n">
         <v>8.960000000000001</v>
       </c>
-      <c r="J402" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14514,14 +13756,12 @@
         <v>-7728376.591263899</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I403" t="n">
         <v>8.960000000000001</v>
       </c>
-      <c r="J403" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14555,14 +13795,12 @@
         <v>-7728376.591263899</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="J404" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14596,14 +13834,12 @@
         <v>-8078460.825463898</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="J405" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14637,14 +13873,12 @@
         <v>-8078460.825463898</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>8.9</v>
       </c>
-      <c r="J406" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14678,14 +13912,12 @@
         <v>-8078460.825463898</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>8.9</v>
       </c>
-      <c r="J407" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14719,14 +13951,12 @@
         <v>-8078360.825463898</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>8.9</v>
       </c>
-      <c r="J408" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14760,14 +13990,12 @@
         <v>-8264989.561063899</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>8.960000000000001</v>
       </c>
-      <c r="J409" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14801,14 +14029,12 @@
         <v>-8264989.561063899</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>8.890000000000001</v>
       </c>
-      <c r="J410" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14842,14 +14068,12 @@
         <v>-8261897.188163899</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>8.890000000000001</v>
       </c>
-      <c r="J411" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14883,12 +14107,12 @@
         <v>-8261897.188163899</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>9.01</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14922,14 +14146,12 @@
         <v>-8261887.188163899</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>8.9</v>
       </c>
-      <c r="J413" t="n">
-        <v>9.01</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14963,12 +14185,12 @@
         <v>-8235521.996963899</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>9.01</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15002,12 +14224,12 @@
         <v>-8235521.996963899</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>9.01</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15019,6 +14241,6 @@
       <c r="M415" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest MIX.xlsx
+++ b/BackTest/2019-10-30 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,7 +682,7 @@
         <v>1564983.400114163</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>1560096.828714163</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1543736.958214163</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1534029.026314163</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1509195.248614163</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>1509205.248614163</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>1484205.248614163</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>1484205.248614163</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>1484205.248614163</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>1638197.012714163</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1638197.012714163</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1685455.394214163</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>1685455.394214163</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1374998.157314163</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1374998.157314163</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1402189.228214163</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1977371.516714163</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1977371.516714163</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-696064.094833324</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-914489.9213333239</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-835524.7423333239</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-1960334.484633324</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-3227327.235033324</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-3227327.235033324</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-3240276.503033324</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-3492731.900333324</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-3160938.044433324</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-7109059.042070055</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-7079226.720370055</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-6950243.246370055</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-6950243.246370055</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-6999457.409570055</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-6999457.409570055</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-6999457.409570055</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-7228040.288570055</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-7225329.099270055</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,17 +13189,11 @@
         <v>-7397343.944970055</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>9.01</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13232,11 +13226,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13265,17 +13255,11 @@
         <v>-7353321.6148639</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>8.949999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13308,11 +13292,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13345,11 +13325,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13382,11 +13358,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13419,11 +13391,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13456,11 +13424,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13493,11 +13457,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13530,11 +13490,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13567,11 +13523,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13600,17 +13552,11 @@
         <v>-7995204.682363898</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>8.970000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13639,17 +13585,11 @@
         <v>-7995204.682363898</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>8.949999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13678,17 +13618,11 @@
         <v>-7568798.035863899</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>8.949999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13717,17 +13651,11 @@
         <v>-7568798.035863899</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>8.960000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13756,17 +13684,11 @@
         <v>-7728376.591263899</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>8.960000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13795,17 +13717,11 @@
         <v>-7728376.591263899</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>8.949999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13834,17 +13750,11 @@
         <v>-8078460.825463898</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>8.949999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13873,17 +13783,11 @@
         <v>-8078460.825463898</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>8.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13912,17 +13816,11 @@
         <v>-8078460.825463898</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>8.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13951,17 +13849,11 @@
         <v>-8078360.825463898</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>8.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13998,7 +13890,7 @@
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L409" t="n">
@@ -14241,6 +14133,6 @@
       <c r="M415" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest MIX.xlsx
+++ b/BackTest/2019-10-30 BackTest MIX.xlsx
@@ -550,7 +550,7 @@
         <v>1963338.083314163</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1962338.083314163</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1853689.248414163</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1577282.062314163</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-835524.7423333239</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-835524.7423333239</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-835312.7423333239</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-835312.7423333239</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-1203983.623933324</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-1269897.941133324</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-1213876.239433324</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-1213876.239433324</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-1122568.982833324</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-1122568.982833324</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-1030847.715233324</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-1030847.715233324</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-1030847.715233324</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-1609495.990233324</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-1609485.990233324</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-1960334.484633324</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-1971788.570233324</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-1984357.418533324</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-2087539.622633324</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-2087539.622633324</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-3257106.459133324</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-3227327.235033324</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-3227327.235033324</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-3240276.503033324</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-3492731.900333324</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-3160938.044433324</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-7109059.042070055</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-7079226.720370055</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-6950243.246370055</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-6950243.246370055</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-6999457.409570055</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-6999457.409570055</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-6999457.409570055</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,11 +13123,17 @@
         <v>-7228040.288570055</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>9.029999999999999</v>
+      </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13156,11 +13162,17 @@
         <v>-7225329.099270055</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>9</v>
+      </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13189,11 +13201,17 @@
         <v>-7397343.944970055</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>9.01</v>
+      </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13222,11 +13240,17 @@
         <v>-7397343.944970055</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13255,11 +13279,17 @@
         <v>-7353321.6148639</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13288,11 +13318,17 @@
         <v>-7583441.833163899</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>9.039999999999999</v>
+      </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13321,11 +13357,17 @@
         <v>-7532121.923063899</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13354,11 +13396,17 @@
         <v>-7532111.923063899</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>8.960000000000001</v>
+      </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13391,7 +13439,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13424,7 +13476,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13457,7 +13513,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13490,7 +13550,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13523,7 +13587,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13556,7 +13624,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13585,11 +13657,17 @@
         <v>-7995204.682363898</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13618,11 +13696,17 @@
         <v>-7568798.035863899</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13651,11 +13735,17 @@
         <v>-7568798.035863899</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>8.960000000000001</v>
+      </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +13774,17 @@
         <v>-7728376.591263899</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>8.960000000000001</v>
+      </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +13813,17 @@
         <v>-7728376.591263899</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13750,11 +13852,17 @@
         <v>-8078460.825463898</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13783,11 +13891,17 @@
         <v>-8078460.825463898</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>8.9</v>
+      </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13816,11 +13930,17 @@
         <v>-8078460.825463898</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>8.9</v>
+      </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13849,11 +13969,17 @@
         <v>-8078360.825463898</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>8.9</v>
+      </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13890,7 +14016,7 @@
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L409" t="n">
